--- a/supplementary/data2.xlsx
+++ b/supplementary/data2.xlsx
@@ -31,9 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="63">
-  <si>
-    <t>Supplemental Data 2: Randomized simulation parameters and correposnding fit values</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="63">
+  <si>
+    <t>Supplemental Data 2: Randomized simulation parameters and corresponding fit values</t>
   </si>
   <si>
     <t>N</t>
@@ -2532,7 +2532,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2554,7 +2554,7 @@
     <col min="14" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2580,22 +2580,19 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -2624,22 +2621,19 @@
         <v>150</v>
       </c>
       <c r="J2">
-        <v>2.4089</v>
+        <v>5</v>
       </c>
       <c r="K2">
+        <v>500</v>
+      </c>
+      <c r="L2">
         <v>5</v>
       </c>
-      <c r="L2">
-        <v>500</v>
-      </c>
       <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="N2">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -2668,22 +2662,19 @@
         <v>150</v>
       </c>
       <c r="J3">
-        <v>5.2761</v>
+        <v>5</v>
       </c>
       <c r="K3">
+        <v>500</v>
+      </c>
+      <c r="L3">
         <v>5</v>
       </c>
-      <c r="L3">
-        <v>500</v>
-      </c>
       <c r="M3">
-        <v>5</v>
-      </c>
-      <c r="N3">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -2712,22 +2703,19 @@
         <v>150</v>
       </c>
       <c r="J4">
-        <v>2.2717</v>
+        <v>5</v>
       </c>
       <c r="K4">
+        <v>500</v>
+      </c>
+      <c r="L4">
         <v>5</v>
       </c>
-      <c r="L4">
-        <v>500</v>
-      </c>
       <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="N4">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -2756,22 +2744,19 @@
         <v>150</v>
       </c>
       <c r="J5">
-        <v>4.2324</v>
+        <v>5</v>
       </c>
       <c r="K5">
+        <v>500</v>
+      </c>
+      <c r="L5">
         <v>5</v>
       </c>
-      <c r="L5">
-        <v>500</v>
-      </c>
       <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -2800,22 +2785,19 @@
         <v>150</v>
       </c>
       <c r="J6">
-        <v>4.2464</v>
+        <v>5</v>
       </c>
       <c r="K6">
+        <v>500</v>
+      </c>
+      <c r="L6">
         <v>5</v>
       </c>
-      <c r="L6">
-        <v>500</v>
-      </c>
       <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -2844,22 +2826,19 @@
         <v>150</v>
       </c>
       <c r="J7">
-        <v>2.7759</v>
+        <v>5</v>
       </c>
       <c r="K7">
+        <v>500</v>
+      </c>
+      <c r="L7">
         <v>5</v>
       </c>
-      <c r="L7">
-        <v>500</v>
-      </c>
       <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -2888,22 +2867,19 @@
         <v>150</v>
       </c>
       <c r="J8">
-        <v>2.4806</v>
+        <v>5</v>
       </c>
       <c r="K8">
+        <v>500</v>
+      </c>
+      <c r="L8">
         <v>5</v>
       </c>
-      <c r="L8">
-        <v>500</v>
-      </c>
       <c r="M8">
-        <v>5</v>
-      </c>
-      <c r="N8">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -2932,22 +2908,19 @@
         <v>150</v>
       </c>
       <c r="J9">
-        <v>3.7185</v>
+        <v>5</v>
       </c>
       <c r="K9">
+        <v>500</v>
+      </c>
+      <c r="L9">
         <v>5</v>
       </c>
-      <c r="L9">
-        <v>500</v>
-      </c>
       <c r="M9">
-        <v>5</v>
-      </c>
-      <c r="N9">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -2976,22 +2949,19 @@
         <v>150</v>
       </c>
       <c r="J10">
-        <v>4.3169</v>
+        <v>5</v>
       </c>
       <c r="K10">
+        <v>500</v>
+      </c>
+      <c r="L10">
         <v>5</v>
       </c>
-      <c r="L10">
-        <v>500</v>
-      </c>
       <c r="M10">
-        <v>5</v>
-      </c>
-      <c r="N10">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -3020,22 +2990,19 @@
         <v>150</v>
       </c>
       <c r="J11">
-        <v>3.1773</v>
+        <v>5</v>
       </c>
       <c r="K11">
+        <v>500</v>
+      </c>
+      <c r="L11">
         <v>5</v>
       </c>
-      <c r="L11">
-        <v>500</v>
-      </c>
       <c r="M11">
-        <v>5</v>
-      </c>
-      <c r="N11">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -3064,22 +3031,19 @@
         <v>150</v>
       </c>
       <c r="J12">
-        <v>2.8882</v>
+        <v>5</v>
       </c>
       <c r="K12">
+        <v>500</v>
+      </c>
+      <c r="L12">
         <v>5</v>
       </c>
-      <c r="L12">
-        <v>500</v>
-      </c>
       <c r="M12">
-        <v>5</v>
-      </c>
-      <c r="N12">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -3108,22 +3072,19 @@
         <v>150</v>
       </c>
       <c r="J13">
-        <v>3.2106</v>
+        <v>5</v>
       </c>
       <c r="K13">
+        <v>500</v>
+      </c>
+      <c r="L13">
         <v>5</v>
       </c>
-      <c r="L13">
-        <v>500</v>
-      </c>
       <c r="M13">
-        <v>5</v>
-      </c>
-      <c r="N13">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -3152,22 +3113,19 @@
         <v>150</v>
       </c>
       <c r="J14">
-        <v>3.1423</v>
+        <v>5</v>
       </c>
       <c r="K14">
+        <v>500</v>
+      </c>
+      <c r="L14">
         <v>5</v>
       </c>
-      <c r="L14">
-        <v>500</v>
-      </c>
       <c r="M14">
-        <v>5</v>
-      </c>
-      <c r="N14">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -3196,22 +3154,19 @@
         <v>150</v>
       </c>
       <c r="J15">
-        <v>4.087</v>
+        <v>5</v>
       </c>
       <c r="K15">
+        <v>500</v>
+      </c>
+      <c r="L15">
         <v>5</v>
       </c>
-      <c r="L15">
-        <v>500</v>
-      </c>
       <c r="M15">
-        <v>5</v>
-      </c>
-      <c r="N15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -3240,22 +3195,19 @@
         <v>150</v>
       </c>
       <c r="J16">
-        <v>5.7136</v>
+        <v>5</v>
       </c>
       <c r="K16">
+        <v>500</v>
+      </c>
+      <c r="L16">
         <v>5</v>
       </c>
-      <c r="L16">
-        <v>500</v>
-      </c>
       <c r="M16">
-        <v>5</v>
-      </c>
-      <c r="N16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -3284,18 +3236,15 @@
         <v>150</v>
       </c>
       <c r="J17">
-        <v>3.5453</v>
+        <v>5</v>
       </c>
       <c r="K17">
+        <v>500</v>
+      </c>
+      <c r="L17">
         <v>5</v>
       </c>
-      <c r="L17">
-        <v>500</v>
-      </c>
       <c r="M17">
-        <v>5</v>
-      </c>
-      <c r="N17">
         <v>14</v>
       </c>
     </row>

--- a/supplementary/data2.xlsx
+++ b/supplementary/data2.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="64">
   <si>
     <t>Supplemental Data 2: Randomized simulation parameters and corresponding fit values</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>gain</t>
+  </si>
+  <si>
+    <t>Fc</t>
   </si>
   <si>
     <t>seed0</t>
@@ -774,7 +777,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -783,7 +786,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -791,13 +794,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.1978</v>
+        <v>7.2267</v>
       </c>
       <c r="C2">
-        <v>7.1768</v>
+        <v>7.2047</v>
       </c>
       <c r="D2">
-        <v>7.2182</v>
+        <v>7.2469</v>
       </c>
       <c r="E2">
         <v>7.1528</v>
@@ -808,13 +811,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.4193</v>
+        <v>0.4287</v>
       </c>
       <c r="C3">
-        <v>0.3156</v>
+        <v>0.294</v>
       </c>
       <c r="D3">
-        <v>0.5348000000000001</v>
+        <v>0.5697</v>
       </c>
       <c r="E3">
         <v>0.3463</v>
@@ -825,13 +828,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.525</v>
+        <v>0.5252</v>
       </c>
       <c r="C4">
-        <v>0.5081</v>
+        <v>0.5072</v>
       </c>
       <c r="D4">
-        <v>0.5442</v>
+        <v>0.544</v>
       </c>
       <c r="E4">
         <v>0.5359</v>
@@ -842,13 +845,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0113</v>
+        <v>0.0107</v>
       </c>
       <c r="C5">
-        <v>0.0063</v>
+        <v>0.0059</v>
       </c>
       <c r="D5">
-        <v>0.0167</v>
+        <v>0.0159</v>
       </c>
       <c r="E5">
         <v>0.0154</v>
@@ -856,16 +859,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>0.0111</v>
+        <v>0.0108</v>
       </c>
       <c r="C6">
-        <v>0.0063</v>
+        <v>0.0059</v>
       </c>
       <c r="D6">
-        <v>0.017</v>
+        <v>0.0161</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -873,7 +876,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.7609</v>
+        <v>3.7649</v>
       </c>
       <c r="E7">
         <v>3.7185</v>
@@ -884,23 +887,23 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9008</v>
+        <v>0.8959</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>0.9643</v>
+        <v>0.9286</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>0.8438</v>
+        <v>0.8667</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -908,7 +911,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2467</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -916,7 +919,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -924,7 +927,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -932,7 +935,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -940,13 +943,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.6946</v>
+        <v>0.6863</v>
       </c>
       <c r="C15">
-        <v>0.5269</v>
+        <v>0.4836</v>
       </c>
       <c r="D15">
-        <v>0.8577</v>
+        <v>0.8453000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -971,7 +974,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -980,7 +983,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -988,13 +991,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>5.3408</v>
+        <v>5.3331</v>
       </c>
       <c r="C2">
-        <v>5.3253</v>
+        <v>5.3182</v>
       </c>
       <c r="D2">
-        <v>5.355</v>
+        <v>5.3471</v>
       </c>
       <c r="E2">
         <v>5.3074</v>
@@ -1005,13 +1008,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2907</v>
+        <v>0.2899</v>
       </c>
       <c r="C3">
-        <v>0.2793</v>
+        <v>0.2814</v>
       </c>
       <c r="D3">
-        <v>0.2995</v>
+        <v>0.2992</v>
       </c>
       <c r="E3">
         <v>0.299</v>
@@ -1022,13 +1025,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0895</v>
+        <v>0.0838</v>
       </c>
       <c r="C4">
-        <v>0.081</v>
+        <v>0.076</v>
       </c>
       <c r="D4">
-        <v>0.09719999999999999</v>
+        <v>0.0915</v>
       </c>
       <c r="E4">
         <v>0.0852</v>
@@ -1039,13 +1042,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3897</v>
+        <v>0.3883</v>
       </c>
       <c r="C5">
-        <v>0.3713</v>
+        <v>0.3694</v>
       </c>
       <c r="D5">
-        <v>0.4072</v>
+        <v>0.4076</v>
       </c>
       <c r="E5">
         <v>0.368</v>
@@ -1053,16 +1056,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>0.6391</v>
+        <v>0.635</v>
       </c>
       <c r="C6">
-        <v>0.5907</v>
+        <v>0.5857</v>
       </c>
       <c r="D6">
-        <v>0.6868</v>
+        <v>0.6882</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1070,7 +1073,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>4.3463</v>
+        <v>4.3425</v>
       </c>
       <c r="E7">
         <v>4.3169</v>
@@ -1081,12 +1084,12 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9958</v>
+        <v>0.9949</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1094,10 +1097,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>0.9948</v>
+        <v>0.9938</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1105,7 +1108,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1113,7 +1116,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1140,7 +1143,7 @@
         <v>0.9993</v>
       </c>
       <c r="C15">
-        <v>0.9952</v>
+        <v>0.992</v>
       </c>
       <c r="D15">
         <v>0.9998</v>
@@ -1168,7 +1171,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -1177,7 +1180,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1185,13 +1188,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>9.8797</v>
+        <v>9.825699999999999</v>
       </c>
       <c r="C2">
-        <v>9.856199999999999</v>
+        <v>9.7987</v>
       </c>
       <c r="D2">
-        <v>9.910299999999999</v>
+        <v>9.852</v>
       </c>
       <c r="E2">
         <v>9.7971</v>
@@ -1202,13 +1205,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.4043</v>
+        <v>0.3955</v>
       </c>
       <c r="C3">
-        <v>0.3716</v>
+        <v>0.3706</v>
       </c>
       <c r="D3">
-        <v>0.4282</v>
+        <v>0.4209</v>
       </c>
       <c r="E3">
         <v>0.4011</v>
@@ -1219,13 +1222,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.006</v>
+        <v>0.0065</v>
       </c>
       <c r="C4">
-        <v>0.0038</v>
+        <v>0.0043</v>
       </c>
       <c r="D4">
-        <v>0.0081</v>
+        <v>0.0086</v>
       </c>
       <c r="E4">
         <v>0.0064</v>
@@ -1236,13 +1239,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0857</v>
+        <v>0.08459999999999999</v>
       </c>
       <c r="C5">
-        <v>0.0741</v>
+        <v>0.0743</v>
       </c>
       <c r="D5">
-        <v>0.0953</v>
+        <v>0.095</v>
       </c>
       <c r="E5">
         <v>0.07480000000000001</v>
@@ -1250,16 +1253,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>0.09370000000000001</v>
+        <v>0.0924</v>
       </c>
       <c r="C6">
-        <v>0.0801</v>
+        <v>0.08019999999999999</v>
       </c>
       <c r="D6">
-        <v>0.1053</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1267,7 +1270,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.2246</v>
+        <v>3.2252</v>
       </c>
       <c r="E7">
         <v>3.1773</v>
@@ -1283,7 +1286,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1291,7 +1294,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1334,10 +1337,10 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9994</v>
+        <v>0.9993</v>
       </c>
       <c r="C15">
-        <v>0.9962</v>
+        <v>0.9933</v>
       </c>
       <c r="D15">
         <v>0.9997</v>
@@ -1365,7 +1368,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -1374,7 +1377,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1382,13 +1385,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>11.9524</v>
+        <v>11.9576</v>
       </c>
       <c r="C2">
-        <v>11.9156</v>
+        <v>11.9254</v>
       </c>
       <c r="D2">
-        <v>11.987</v>
+        <v>11.9887</v>
       </c>
       <c r="E2">
         <v>11.8566</v>
@@ -1399,13 +1402,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.4989</v>
+        <v>0.5232</v>
       </c>
       <c r="C3">
-        <v>0.4409</v>
+        <v>0.4565</v>
       </c>
       <c r="D3">
-        <v>0.5622</v>
+        <v>0.5897</v>
       </c>
       <c r="E3">
         <v>0.5294</v>
@@ -1416,13 +1419,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.8156</v>
+        <v>0.8143</v>
       </c>
       <c r="C4">
-        <v>0.7951</v>
+        <v>0.7887999999999999</v>
       </c>
       <c r="D4">
-        <v>0.8411</v>
+        <v>0.8378</v>
       </c>
       <c r="E4">
         <v>0.8133</v>
@@ -1433,13 +1436,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0555</v>
+        <v>0.0583</v>
       </c>
       <c r="C5">
-        <v>0.0462</v>
+        <v>0.0482</v>
       </c>
       <c r="D5">
-        <v>0.0653</v>
+        <v>0.0693</v>
       </c>
       <c r="E5">
         <v>0.0545</v>
@@ -1447,16 +1450,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>0.0588</v>
+        <v>0.0619</v>
       </c>
       <c r="C6">
-        <v>0.0474</v>
+        <v>0.0506</v>
       </c>
       <c r="D6">
-        <v>0.0688</v>
+        <v>0.0745</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1464,7 +1467,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.0631</v>
+        <v>3.0361</v>
       </c>
       <c r="E7">
         <v>2.8882</v>
@@ -1475,23 +1478,23 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.8124</v>
+        <v>0.8087</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>0.8613</v>
+        <v>0.8832</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>0.7867</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1499,7 +1502,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2331</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1507,7 +1510,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1515,7 +1518,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1523,7 +1526,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1531,13 +1534,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.8381999999999999</v>
+        <v>0.8241000000000001</v>
       </c>
       <c r="C15">
-        <v>0.201</v>
+        <v>0.3584</v>
       </c>
       <c r="D15">
-        <v>0.9382</v>
+        <v>0.9313</v>
       </c>
     </row>
   </sheetData>
@@ -1562,7 +1565,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -1571,7 +1574,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1579,13 +1582,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>9.651400000000001</v>
+        <v>9.6275</v>
       </c>
       <c r="C2">
-        <v>9.6251</v>
+        <v>9.598800000000001</v>
       </c>
       <c r="D2">
-        <v>9.68</v>
+        <v>9.656599999999999</v>
       </c>
       <c r="E2">
         <v>9.5952</v>
@@ -1596,13 +1599,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.3853</v>
+        <v>0.371</v>
       </c>
       <c r="C3">
-        <v>0.3548</v>
+        <v>0.3436</v>
       </c>
       <c r="D3">
-        <v>0.4142</v>
+        <v>0.4004</v>
       </c>
       <c r="E3">
         <v>0.4048</v>
@@ -1613,13 +1616,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.1835</v>
+        <v>0.1938</v>
       </c>
       <c r="C4">
-        <v>0.1717</v>
+        <v>0.1819</v>
       </c>
       <c r="D4">
-        <v>0.1946</v>
+        <v>0.2057</v>
       </c>
       <c r="E4">
         <v>0.1847</v>
@@ -1630,13 +1633,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.08799999999999999</v>
+        <v>0.08450000000000001</v>
       </c>
       <c r="C5">
-        <v>0.07439999999999999</v>
+        <v>0.0735</v>
       </c>
       <c r="D5">
-        <v>0.0992</v>
+        <v>0.0958</v>
       </c>
       <c r="E5">
         <v>0.083</v>
@@ -1644,16 +1647,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>0.0959</v>
+        <v>0.09229999999999999</v>
       </c>
       <c r="C6">
-        <v>0.0804</v>
+        <v>0.0793</v>
       </c>
       <c r="D6">
-        <v>0.1101</v>
+        <v>0.1059</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1661,7 +1664,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.1945</v>
+        <v>3.1816</v>
       </c>
       <c r="E7">
         <v>3.2106</v>
@@ -1672,23 +1675,23 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9466</v>
+        <v>0.9517</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>0.9668</v>
+        <v>0.9716</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>0.9358</v>
+        <v>0.9404</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1696,7 +1699,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2275</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1704,7 +1707,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1712,7 +1715,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1720,7 +1723,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1728,13 +1731,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9835</v>
+        <v>0.9807</v>
       </c>
       <c r="C15">
-        <v>0.7703</v>
+        <v>0.679</v>
       </c>
       <c r="D15">
-        <v>0.9989</v>
+        <v>0.9947</v>
       </c>
     </row>
   </sheetData>
@@ -1759,7 +1762,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -1768,7 +1771,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1776,13 +1779,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>10.001</v>
+        <v>10.0103</v>
       </c>
       <c r="C2">
-        <v>9.9754</v>
+        <v>9.982799999999999</v>
       </c>
       <c r="D2">
-        <v>10.0256</v>
+        <v>10.0371</v>
       </c>
       <c r="E2">
         <v>10.0168</v>
@@ -1793,13 +1796,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.352</v>
+        <v>0.3561</v>
       </c>
       <c r="C3">
-        <v>0.3314</v>
+        <v>0.3348</v>
       </c>
       <c r="D3">
-        <v>0.3695</v>
+        <v>0.3782</v>
       </c>
       <c r="E3">
         <v>0.3499</v>
@@ -1810,13 +1813,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.009599999999999999</v>
+        <v>0.0098</v>
       </c>
       <c r="C4">
         <v>0.007</v>
       </c>
       <c r="D4">
-        <v>0.0123</v>
+        <v>0.0124</v>
       </c>
       <c r="E4">
         <v>0.0109</v>
@@ -1827,13 +1830,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0989</v>
+        <v>0.0959</v>
       </c>
       <c r="C5">
-        <v>0.08749999999999999</v>
+        <v>0.0848</v>
       </c>
       <c r="D5">
-        <v>0.1115</v>
+        <v>0.1068</v>
       </c>
       <c r="E5">
         <v>0.0914</v>
@@ -1841,16 +1844,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>0.11</v>
+        <v>0.1061</v>
       </c>
       <c r="C6">
-        <v>0.0959</v>
+        <v>0.0927</v>
       </c>
       <c r="D6">
-        <v>0.1255</v>
+        <v>0.1196</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1858,7 +1861,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.1268</v>
+        <v>3.1484</v>
       </c>
       <c r="E7">
         <v>3.1423</v>
@@ -1874,7 +1877,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1882,7 +1885,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1925,10 +1928,10 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9993</v>
+        <v>0.9991</v>
       </c>
       <c r="C15">
-        <v>0.9949</v>
+        <v>0.9928</v>
       </c>
       <c r="D15">
         <v>0.9998</v>
@@ -1956,7 +1959,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -1965,7 +1968,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1973,13 +1976,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>5.9668</v>
+        <v>5.9536</v>
       </c>
       <c r="C2">
-        <v>5.9505</v>
+        <v>5.9358</v>
       </c>
       <c r="D2">
-        <v>5.9844</v>
+        <v>5.9715</v>
       </c>
       <c r="E2">
         <v>5.9212</v>
@@ -1990,13 +1993,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2763</v>
+        <v>0.2824</v>
       </c>
       <c r="C3">
-        <v>0.2605</v>
+        <v>0.2641</v>
       </c>
       <c r="D3">
-        <v>0.2948</v>
+        <v>0.3021</v>
       </c>
       <c r="E3">
         <v>0.2922</v>
@@ -2007,13 +2010,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.1852</v>
+        <v>0.1876</v>
       </c>
       <c r="C4">
-        <v>0.1747</v>
+        <v>0.1759</v>
       </c>
       <c r="D4">
-        <v>0.1963</v>
+        <v>0.1993</v>
       </c>
       <c r="E4">
         <v>0.1857</v>
@@ -2024,13 +2027,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0944</v>
+        <v>0.096</v>
       </c>
       <c r="C5">
-        <v>0.08450000000000001</v>
+        <v>0.08409999999999999</v>
       </c>
       <c r="D5">
-        <v>0.1057</v>
+        <v>0.1075</v>
       </c>
       <c r="E5">
         <v>0.09619999999999999</v>
@@ -2038,16 +2041,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>0.1041</v>
+        <v>0.1063</v>
       </c>
       <c r="C6">
-        <v>0.09229999999999999</v>
+        <v>0.09180000000000001</v>
       </c>
       <c r="D6">
-        <v>0.1182</v>
+        <v>0.1205</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2055,7 +2058,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>4.1245</v>
+        <v>4.1534</v>
       </c>
       <c r="E7">
         <v>4.087</v>
@@ -2066,12 +2069,12 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9841</v>
+        <v>0.9819</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0.9917</v>
@@ -2079,10 +2082,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>0.9796</v>
+        <v>0.9756</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2090,7 +2093,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2098,7 +2101,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2122,13 +2125,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9923</v>
+        <v>0.99</v>
       </c>
       <c r="C15">
-        <v>0.9277</v>
+        <v>0.8995</v>
       </c>
       <c r="D15">
-        <v>0.9996</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2156,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -2162,7 +2165,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2170,13 +2173,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>3.0416</v>
+        <v>3.0265</v>
       </c>
       <c r="C2">
-        <v>3.0334</v>
+        <v>3.0181</v>
       </c>
       <c r="D2">
-        <v>3.051</v>
+        <v>3.0346</v>
       </c>
       <c r="E2">
         <v>3.0297</v>
@@ -2187,13 +2190,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2854</v>
+        <v>0.2805</v>
       </c>
       <c r="C3">
-        <v>0.2662</v>
+        <v>0.2617</v>
       </c>
       <c r="D3">
-        <v>0.3018</v>
+        <v>0.3005</v>
       </c>
       <c r="E3">
         <v>0.3023</v>
@@ -2204,13 +2207,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.2686</v>
+        <v>0.273</v>
       </c>
       <c r="C4">
-        <v>0.2554</v>
+        <v>0.2599</v>
       </c>
       <c r="D4">
-        <v>0.2823</v>
+        <v>0.2874</v>
       </c>
       <c r="E4">
         <v>0.2711</v>
@@ -2221,13 +2224,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0919</v>
+        <v>0.091</v>
       </c>
       <c r="C5">
-        <v>0.0815</v>
+        <v>0.08</v>
       </c>
       <c r="D5">
-        <v>0.1033</v>
+        <v>0.1018</v>
       </c>
       <c r="E5">
         <v>0.1037</v>
@@ -2235,16 +2238,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>0.1015</v>
+        <v>0.1001</v>
       </c>
       <c r="C6">
-        <v>0.0887</v>
+        <v>0.0868</v>
       </c>
       <c r="D6">
-        <v>0.1152</v>
+        <v>0.1131</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2252,7 +2255,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>5.9066</v>
+        <v>5.9103</v>
       </c>
       <c r="E7">
         <v>5.7136</v>
@@ -2263,12 +2266,12 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9833</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2276,10 +2279,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>0.97</v>
+        <v>0.9784</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2287,7 +2290,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2267</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2295,7 +2298,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2319,13 +2322,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.988</v>
+        <v>0.9875</v>
       </c>
       <c r="C15">
-        <v>0.9338</v>
+        <v>0.8893</v>
       </c>
       <c r="D15">
-        <v>0.9998</v>
+        <v>0.9964</v>
       </c>
     </row>
   </sheetData>
@@ -2350,7 +2353,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -2359,7 +2362,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2367,13 +2370,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.9598</v>
+        <v>7.9379</v>
       </c>
       <c r="C2">
-        <v>7.9374</v>
+        <v>7.9143</v>
       </c>
       <c r="D2">
-        <v>7.9834</v>
+        <v>7.9618</v>
       </c>
       <c r="E2">
         <v>7.8689</v>
@@ -2384,13 +2387,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.4839</v>
+        <v>0.5081</v>
       </c>
       <c r="C3">
-        <v>0.4341</v>
+        <v>0.4587</v>
       </c>
       <c r="D3">
-        <v>0.5254</v>
+        <v>0.5594</v>
       </c>
       <c r="E3">
         <v>0.4631</v>
@@ -2401,13 +2404,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.4049</v>
+        <v>0.4094</v>
       </c>
       <c r="C4">
-        <v>0.3884</v>
+        <v>0.3923</v>
       </c>
       <c r="D4">
-        <v>0.4197</v>
+        <v>0.4264</v>
       </c>
       <c r="E4">
         <v>0.4095</v>
@@ -2418,13 +2421,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0655</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="C5">
-        <v>0.0555</v>
+        <v>0.056</v>
       </c>
       <c r="D5">
-        <v>0.07539999999999999</v>
+        <v>0.0769</v>
       </c>
       <c r="E5">
         <v>0.0732</v>
@@ -2432,16 +2435,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>0.0701</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="C6">
-        <v>0.0587</v>
+        <v>0.0592</v>
       </c>
       <c r="D6">
-        <v>0.0815</v>
+        <v>0.0832</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2449,7 +2452,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.6052</v>
+        <v>3.6457</v>
       </c>
       <c r="E7">
         <v>3.5453</v>
@@ -2460,23 +2463,23 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9174</v>
+        <v>0.8996</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>0.9527</v>
+        <v>0.9408</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>0.8944</v>
+        <v>0.8736</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2484,7 +2487,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2312</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2492,7 +2495,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2500,7 +2503,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2508,7 +2511,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2516,13 +2519,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9293</v>
+        <v>0.9162</v>
       </c>
       <c r="C15">
-        <v>0.5195</v>
+        <v>0.4941</v>
       </c>
       <c r="D15">
-        <v>0.9802</v>
+        <v>0.9734</v>
       </c>
     </row>
   </sheetData>
@@ -2532,7 +2535,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2552,9 +2555,10 @@
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2589,12 +2593,15 @@
         <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>1.4</v>
@@ -2630,12 +2637,15 @@
         <v>5</v>
       </c>
       <c r="M2">
+        <v>500</v>
+      </c>
+      <c r="N2">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>1.4</v>
@@ -2671,12 +2681,15 @@
         <v>5</v>
       </c>
       <c r="M3">
+        <v>500</v>
+      </c>
+      <c r="N3">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>1.4</v>
@@ -2712,12 +2725,15 @@
         <v>5</v>
       </c>
       <c r="M4">
+        <v>500</v>
+      </c>
+      <c r="N4">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>1.4</v>
@@ -2753,12 +2769,15 @@
         <v>5</v>
       </c>
       <c r="M5">
+        <v>500</v>
+      </c>
+      <c r="N5">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>1.4</v>
@@ -2794,12 +2813,15 @@
         <v>5</v>
       </c>
       <c r="M6">
+        <v>500</v>
+      </c>
+      <c r="N6">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>1.4</v>
@@ -2835,12 +2857,15 @@
         <v>5</v>
       </c>
       <c r="M7">
+        <v>500</v>
+      </c>
+      <c r="N7">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>1.4</v>
@@ -2876,12 +2901,15 @@
         <v>5</v>
       </c>
       <c r="M8">
+        <v>500</v>
+      </c>
+      <c r="N8">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>1.4</v>
@@ -2917,12 +2945,15 @@
         <v>5</v>
       </c>
       <c r="M9">
+        <v>500</v>
+      </c>
+      <c r="N9">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>1.4</v>
@@ -2958,12 +2989,15 @@
         <v>5</v>
       </c>
       <c r="M10">
+        <v>500</v>
+      </c>
+      <c r="N10">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>1.4</v>
@@ -2999,12 +3033,15 @@
         <v>5</v>
       </c>
       <c r="M11">
+        <v>500</v>
+      </c>
+      <c r="N11">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>1.4</v>
@@ -3040,12 +3077,15 @@
         <v>5</v>
       </c>
       <c r="M12">
+        <v>500</v>
+      </c>
+      <c r="N12">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>1.4</v>
@@ -3081,12 +3121,15 @@
         <v>5</v>
       </c>
       <c r="M13">
+        <v>500</v>
+      </c>
+      <c r="N13">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>1.4</v>
@@ -3122,12 +3165,15 @@
         <v>5</v>
       </c>
       <c r="M14">
+        <v>500</v>
+      </c>
+      <c r="N14">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>1.4</v>
@@ -3163,12 +3209,15 @@
         <v>5</v>
       </c>
       <c r="M15">
+        <v>500</v>
+      </c>
+      <c r="N15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>1.4</v>
@@ -3204,12 +3253,15 @@
         <v>5</v>
       </c>
       <c r="M16">
+        <v>500</v>
+      </c>
+      <c r="N16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>1.4</v>
@@ -3245,6 +3297,9 @@
         <v>5</v>
       </c>
       <c r="M17">
+        <v>500</v>
+      </c>
+      <c r="N17">
         <v>14</v>
       </c>
     </row>
@@ -3270,7 +3325,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -3279,7 +3334,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3287,13 +3342,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>17.282</v>
+        <v>17.178</v>
       </c>
       <c r="C2">
-        <v>17.2366</v>
+        <v>17.1291</v>
       </c>
       <c r="D2">
-        <v>17.3364</v>
+        <v>17.2287</v>
       </c>
       <c r="E2">
         <v>17.044</v>
@@ -3304,13 +3359,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.365</v>
+        <v>0.3765</v>
       </c>
       <c r="C3">
-        <v>0.3425</v>
+        <v>0.3557</v>
       </c>
       <c r="D3">
-        <v>0.384</v>
+        <v>0.397</v>
       </c>
       <c r="E3">
         <v>0.362</v>
@@ -3321,13 +3376,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.4796</v>
+        <v>0.4836</v>
       </c>
       <c r="C4">
-        <v>0.4613</v>
+        <v>0.4665</v>
       </c>
       <c r="D4">
-        <v>0.4958</v>
+        <v>0.5019</v>
       </c>
       <c r="E4">
         <v>0.5113</v>
@@ -3338,13 +3393,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1685</v>
+        <v>0.1736</v>
       </c>
       <c r="C5">
-        <v>0.1558</v>
+        <v>0.1578</v>
       </c>
       <c r="D5">
-        <v>0.1857</v>
+        <v>0.1898</v>
       </c>
       <c r="E5">
         <v>0.1456</v>
@@ -3352,16 +3407,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>0.2038</v>
+        <v>0.2101</v>
       </c>
       <c r="C6">
-        <v>0.1845</v>
+        <v>0.1873</v>
       </c>
       <c r="D6">
-        <v>0.228</v>
+        <v>0.2343</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3369,7 +3424,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2.4565</v>
+        <v>2.47</v>
       </c>
       <c r="E7">
         <v>2.4089</v>
@@ -3380,23 +3435,23 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9499</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>0.9779</v>
+        <v>0.9926</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>0.9388</v>
+        <v>0.9268</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3404,7 +3459,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2066</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3412,7 +3467,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3420,7 +3475,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3428,7 +3483,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3436,13 +3491,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9824000000000001</v>
+        <v>0.9787</v>
       </c>
       <c r="C15">
-        <v>0.8676</v>
+        <v>0.872</v>
       </c>
       <c r="D15">
-        <v>0.9987</v>
+        <v>0.9938</v>
       </c>
     </row>
   </sheetData>
@@ -3467,7 +3522,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -3476,7 +3531,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3484,13 +3539,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>3.5838</v>
+        <v>3.5867</v>
       </c>
       <c r="C2">
-        <v>3.5744</v>
+        <v>3.5767</v>
       </c>
       <c r="D2">
-        <v>3.5928</v>
+        <v>3.5961</v>
       </c>
       <c r="E2">
         <v>3.5529</v>
@@ -3501,13 +3556,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.3704</v>
+        <v>0.3674</v>
       </c>
       <c r="C3">
-        <v>0.3433</v>
+        <v>0.3456</v>
       </c>
       <c r="D3">
-        <v>0.3921</v>
+        <v>0.3914</v>
       </c>
       <c r="E3">
         <v>0.3798</v>
@@ -3518,13 +3573,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.4926</v>
+        <v>0.4856</v>
       </c>
       <c r="C4">
-        <v>0.4735</v>
+        <v>0.4689</v>
       </c>
       <c r="D4">
-        <v>0.5079</v>
+        <v>0.5047</v>
       </c>
       <c r="E4">
         <v>0.4954</v>
@@ -3535,13 +3590,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1311</v>
+        <v>0.135</v>
       </c>
       <c r="C5">
-        <v>0.1188</v>
+        <v>0.1211</v>
       </c>
       <c r="D5">
-        <v>0.1438</v>
+        <v>0.1491</v>
       </c>
       <c r="E5">
         <v>0.1358</v>
@@ -3549,16 +3604,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>0.1507</v>
+        <v>0.1561</v>
       </c>
       <c r="C6">
-        <v>0.1348</v>
+        <v>0.1377</v>
       </c>
       <c r="D6">
-        <v>0.168</v>
+        <v>0.1752</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3566,7 +3621,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>5.486</v>
+        <v>5.466</v>
       </c>
       <c r="E7">
         <v>5.2761</v>
@@ -3577,12 +3632,12 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9665</v>
+        <v>0.9649</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0.9882</v>
@@ -3590,10 +3645,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>0.9543</v>
+        <v>0.9516</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3601,7 +3656,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3609,7 +3664,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3633,13 +3688,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9767</v>
+        <v>0.9755</v>
       </c>
       <c r="C15">
-        <v>0.7282</v>
+        <v>0.7639</v>
       </c>
       <c r="D15">
-        <v>0.9995000000000001</v>
+        <v>0.9929</v>
       </c>
     </row>
   </sheetData>
@@ -3664,7 +3719,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -3673,7 +3728,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3681,13 +3736,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>19.4476</v>
+        <v>19.4107</v>
       </c>
       <c r="C2">
-        <v>19.3966</v>
+        <v>19.3547</v>
       </c>
       <c r="D2">
-        <v>19.504</v>
+        <v>19.4632</v>
       </c>
       <c r="E2">
         <v>19.1647</v>
@@ -3698,13 +3753,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.3521</v>
+        <v>0.3515</v>
       </c>
       <c r="C3">
-        <v>0.3336</v>
+        <v>0.3318</v>
       </c>
       <c r="D3">
-        <v>0.3708</v>
+        <v>0.3701</v>
       </c>
       <c r="E3">
         <v>0.3233</v>
@@ -3715,13 +3770,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.6087</v>
+        <v>0.6385</v>
       </c>
       <c r="C4">
-        <v>0.5891</v>
+        <v>0.6187</v>
       </c>
       <c r="D4">
-        <v>0.6282</v>
+        <v>0.6582</v>
       </c>
       <c r="E4">
         <v>0.6697</v>
@@ -3732,13 +3787,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1875</v>
+        <v>0.1874</v>
       </c>
       <c r="C5">
-        <v>0.1722</v>
+        <v>0.1714</v>
       </c>
       <c r="D5">
-        <v>0.2027</v>
+        <v>0.2035</v>
       </c>
       <c r="E5">
         <v>0.1812</v>
@@ -3746,16 +3801,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>0.2313</v>
+        <v>0.2307</v>
       </c>
       <c r="C6">
-        <v>0.2068</v>
+        <v>0.2069</v>
       </c>
       <c r="D6">
-        <v>0.253</v>
+        <v>0.2555</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3763,7 +3818,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2.3271</v>
+        <v>2.3398</v>
       </c>
       <c r="E7">
         <v>2.2717</v>
@@ -3774,23 +3829,23 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9475</v>
+        <v>0.9459</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>0.9932</v>
+        <v>0.9887</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>0.9221</v>
+        <v>0.9237</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3798,7 +3853,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3806,7 +3861,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3814,7 +3869,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3822,7 +3877,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3830,13 +3885,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.981</v>
+        <v>0.976</v>
       </c>
       <c r="C15">
-        <v>0.9</v>
+        <v>0.8447</v>
       </c>
       <c r="D15">
-        <v>0.9993</v>
+        <v>0.9927</v>
       </c>
     </row>
   </sheetData>
@@ -3861,7 +3916,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -3870,7 +3925,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3878,13 +3933,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>5.5973</v>
+        <v>5.5532</v>
       </c>
       <c r="C2">
-        <v>5.5846</v>
+        <v>5.5378</v>
       </c>
       <c r="D2">
-        <v>5.6117</v>
+        <v>5.5676</v>
       </c>
       <c r="E2">
         <v>5.5213</v>
@@ -3895,13 +3950,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2423</v>
+        <v>0.2443</v>
       </c>
       <c r="C3">
-        <v>0.2267</v>
+        <v>0.2281</v>
       </c>
       <c r="D3">
-        <v>0.2612</v>
+        <v>0.2613</v>
       </c>
       <c r="E3">
         <v>0.2262</v>
@@ -3912,13 +3967,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.6477000000000001</v>
+        <v>0.6346000000000001</v>
       </c>
       <c r="C4">
-        <v>0.626</v>
+        <v>0.6157</v>
       </c>
       <c r="D4">
-        <v>0.6673</v>
+        <v>0.6563</v>
       </c>
       <c r="E4">
         <v>0.6257</v>
@@ -3929,10 +3984,10 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.09859999999999999</v>
+        <v>0.0987</v>
       </c>
       <c r="C5">
-        <v>0.0863</v>
+        <v>0.08649999999999999</v>
       </c>
       <c r="D5">
         <v>0.1108</v>
@@ -3943,16 +3998,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>0.1093</v>
+        <v>0.1095</v>
       </c>
       <c r="C6">
-        <v>0.0945</v>
+        <v>0.0946</v>
       </c>
       <c r="D6">
-        <v>0.1246</v>
+        <v>0.1245</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3960,7 +4015,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>4.3683</v>
+        <v>4.3645</v>
       </c>
       <c r="E7">
         <v>4.2324</v>
@@ -3971,23 +4026,23 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.965</v>
+        <v>0.9604</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>0.9919</v>
+        <v>0.9837</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>0.9457</v>
+        <v>0.9453</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4011,7 +4066,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4019,7 +4074,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4027,13 +4082,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9826</v>
+        <v>0.9775</v>
       </c>
       <c r="C15">
-        <v>0.8529</v>
+        <v>0.7627</v>
       </c>
       <c r="D15">
-        <v>0.9998</v>
+        <v>0.9931</v>
       </c>
     </row>
   </sheetData>
@@ -4058,7 +4113,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -4067,7 +4122,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4075,13 +4130,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>5.5291</v>
+        <v>5.5293</v>
       </c>
       <c r="C2">
-        <v>5.5146</v>
+        <v>5.5125</v>
       </c>
       <c r="D2">
-        <v>5.5451</v>
+        <v>5.5449</v>
       </c>
       <c r="E2">
         <v>5.4849</v>
@@ -4092,13 +4147,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.3867</v>
+        <v>0.4348</v>
       </c>
       <c r="C3">
-        <v>0.318</v>
+        <v>0.3498</v>
       </c>
       <c r="D3">
-        <v>0.4832</v>
+        <v>0.521</v>
       </c>
       <c r="E3">
         <v>0.3606</v>
@@ -4109,13 +4164,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0701</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="C4">
-        <v>0.0623</v>
+        <v>0.0646</v>
       </c>
       <c r="D4">
-        <v>0.07729999999999999</v>
+        <v>0.0788</v>
       </c>
       <c r="E4">
         <v>0.0665</v>
@@ -4129,10 +4184,10 @@
         <v>0.0166</v>
       </c>
       <c r="C5">
-        <v>0.012</v>
+        <v>0.0114</v>
       </c>
       <c r="D5">
-        <v>0.0221</v>
+        <v>0.0218</v>
       </c>
       <c r="E5">
         <v>0.0132</v>
@@ -4140,16 +4195,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>0.0168</v>
+        <v>0.0169</v>
       </c>
       <c r="C6">
-        <v>0.0122</v>
+        <v>0.0115</v>
       </c>
       <c r="D6">
-        <v>0.0226</v>
+        <v>0.0222</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4157,7 +4212,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>4.2382</v>
+        <v>4.2259</v>
       </c>
       <c r="E7">
         <v>4.2464</v>
@@ -4168,12 +4223,12 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9482</v>
+        <v>0.9033</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0.9737</v>
@@ -4181,10 +4236,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>0.925</v>
+        <v>0.8409</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4192,7 +4247,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2459</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4200,7 +4255,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4224,13 +4279,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9684</v>
+        <v>0.9565</v>
       </c>
       <c r="C15">
-        <v>0.5894</v>
+        <v>0.7799</v>
       </c>
       <c r="D15">
-        <v>0.9874000000000001</v>
+        <v>0.9819</v>
       </c>
     </row>
   </sheetData>
@@ -4255,7 +4310,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -4264,7 +4319,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4272,13 +4327,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>12.914</v>
+        <v>12.9258</v>
       </c>
       <c r="C2">
-        <v>12.876</v>
+        <v>12.8871</v>
       </c>
       <c r="D2">
-        <v>12.9489</v>
+        <v>12.9629</v>
       </c>
       <c r="E2">
         <v>12.8351</v>
@@ -4289,13 +4344,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.5903</v>
+        <v>0.5949</v>
       </c>
       <c r="C3">
-        <v>0.5317</v>
+        <v>0.5373</v>
       </c>
       <c r="D3">
-        <v>0.6389</v>
+        <v>0.6498</v>
       </c>
       <c r="E3">
         <v>0.5689</v>
@@ -4306,13 +4361,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.7387</v>
+        <v>0.7449</v>
       </c>
       <c r="C4">
-        <v>0.7185</v>
+        <v>0.722</v>
       </c>
       <c r="D4">
-        <v>0.7613</v>
+        <v>0.768</v>
       </c>
       <c r="E4">
         <v>0.7399</v>
@@ -4323,13 +4378,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0964</v>
+        <v>0.097</v>
       </c>
       <c r="C5">
-        <v>0.0856</v>
+        <v>0.0842</v>
       </c>
       <c r="D5">
-        <v>0.1099</v>
+        <v>0.1098</v>
       </c>
       <c r="E5">
         <v>0.0977</v>
@@ -4337,16 +4392,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>0.1071</v>
+        <v>0.1076</v>
       </c>
       <c r="C6">
-        <v>0.0936</v>
+        <v>0.0919</v>
       </c>
       <c r="D6">
-        <v>0.1235</v>
+        <v>0.1233</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4354,7 +4409,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2.8403</v>
+        <v>2.849</v>
       </c>
       <c r="E7">
         <v>2.7759</v>
@@ -4365,23 +4420,23 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.8862</v>
+        <v>0.8875</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>0.9364</v>
+        <v>0.9449</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>0.8599</v>
+        <v>0.8544</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4389,7 +4444,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2228</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4397,7 +4452,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4405,7 +4460,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4413,7 +4468,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4421,13 +4476,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.8782</v>
+        <v>0.8751</v>
       </c>
       <c r="C15">
-        <v>0.4526</v>
+        <v>0.4751</v>
       </c>
       <c r="D15">
-        <v>0.9567</v>
+        <v>0.9554</v>
       </c>
     </row>
   </sheetData>
@@ -4452,7 +4507,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -4461,7 +4516,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4469,13 +4524,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>16.1154</v>
+        <v>16.0932</v>
       </c>
       <c r="C2">
-        <v>16.0686</v>
+        <v>16.0502</v>
       </c>
       <c r="D2">
-        <v>16.1565</v>
+        <v>16.1367</v>
       </c>
       <c r="E2">
         <v>16.0735</v>
@@ -4486,13 +4541,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.4557</v>
+        <v>0.4585</v>
       </c>
       <c r="C3">
         <v>0.437</v>
       </c>
       <c r="D3">
-        <v>0.4821</v>
+        <v>0.4796</v>
       </c>
       <c r="E3">
         <v>0.4651</v>
@@ -4503,13 +4558,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0005</v>
+        <v>0.0004</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0011</v>
+        <v>0.001</v>
       </c>
       <c r="E4">
         <v>0.0005</v>
@@ -4520,13 +4575,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1676</v>
+        <v>0.1667</v>
       </c>
       <c r="C5">
-        <v>0.1533</v>
+        <v>0.1518</v>
       </c>
       <c r="D5">
-        <v>0.1826</v>
+        <v>0.181</v>
       </c>
       <c r="E5">
         <v>0.1629</v>
@@ -4534,16 +4589,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>0.2014</v>
+        <v>0.2003</v>
       </c>
       <c r="C6">
-        <v>0.181</v>
+        <v>0.1789</v>
       </c>
       <c r="D6">
-        <v>0.2235</v>
+        <v>0.2209</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4551,7 +4606,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2.4658</v>
+        <v>2.465</v>
       </c>
       <c r="E7">
         <v>2.4806</v>
@@ -4562,12 +4617,12 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9956</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -4575,10 +4630,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10">
-        <v>0.9926</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4586,7 +4641,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2096</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4594,7 +4649,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4621,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.9999</v>
+        <v>0.9997</v>
       </c>
       <c r="D15">
         <v>1</v>

--- a/supplementary/data2.xlsx
+++ b/supplementary/data2.xlsx
@@ -33,7 +33,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="64">
   <si>
-    <t>Supplemental Data 2: Randomized simulation parameters and corresponding fit values</t>
+    <t>Supplementary File 2: Randomized simulation parameters and corresponding fit values</t>
   </si>
   <si>
     <t>N</t>
